--- a/data/pca/factorExposure/factorExposure_2018-05-23.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-05-23.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +726,91 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.01430080902618299</v>
+        <v>0.0186660253536617</v>
       </c>
       <c r="C2">
-        <v>-0.03156568763772323</v>
+        <v>-0.01648518170090623</v>
       </c>
       <c r="D2">
-        <v>0.009200472556381558</v>
+        <v>0.02935623765989891</v>
       </c>
       <c r="E2">
-        <v>0.02115621324562351</v>
+        <v>-0.01602289864484459</v>
       </c>
       <c r="F2">
-        <v>0.1121629533529722</v>
+        <v>0.006255152290815184</v>
       </c>
       <c r="G2">
-        <v>-0.06963719764515212</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.04632370711831282</v>
+      </c>
+      <c r="H2">
+        <v>-0.04674505308934081</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>-0.08814684723345899</v>
+        <v>0.0813982563361411</v>
       </c>
       <c r="C3">
-        <v>-0.01958251462267518</v>
+        <v>0.01617553122942147</v>
       </c>
       <c r="D3">
-        <v>0.06022545264745782</v>
+        <v>0.05596889989805423</v>
       </c>
       <c r="E3">
-        <v>0.09860786003312391</v>
+        <v>-0.01659550247272268</v>
       </c>
       <c r="F3">
-        <v>0.4154230202031116</v>
+        <v>-0.004661296899068051</v>
       </c>
       <c r="G3">
-        <v>-0.2058496201805896</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>0.1730289980759302</v>
+      </c>
+      <c r="H3">
+        <v>-0.1491988944441947</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.04130847403002958</v>
+        <v>0.04692170174667828</v>
       </c>
       <c r="C4">
-        <v>-0.007485136295908535</v>
+        <v>-0.0006957072585166989</v>
       </c>
       <c r="D4">
-        <v>-0.008502964601949005</v>
+        <v>0.05602318984390357</v>
       </c>
       <c r="E4">
-        <v>-0.04215859128171184</v>
+        <v>0.01765126155463264</v>
       </c>
       <c r="F4">
-        <v>0.08148929125224</v>
+        <v>0.04725269543554214</v>
       </c>
       <c r="G4">
-        <v>-0.04308325193185515</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.03924421048813389</v>
+      </c>
+      <c r="H4">
+        <v>-0.05698629205262676</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +830,247 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.02871872081290417</v>
+        <v>0.0279564580234051</v>
       </c>
       <c r="C6">
-        <v>-0.01266728036444202</v>
+        <v>0.002197553217364905</v>
       </c>
       <c r="D6">
-        <v>0.003168027581291357</v>
+        <v>0.05869787625141232</v>
       </c>
       <c r="E6">
-        <v>-0.01958926499230246</v>
+        <v>0.004069632140886052</v>
       </c>
       <c r="F6">
-        <v>0.01282722683921262</v>
+        <v>0.03073929052186068</v>
       </c>
       <c r="G6">
-        <v>0.01145778301118017</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.01095841946356628</v>
+      </c>
+      <c r="H6">
+        <v>-0.0617571548619919</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.01933899600687334</v>
+        <v>0.02245924617298673</v>
       </c>
       <c r="C7">
-        <v>-0.009175265345454807</v>
+        <v>-0.0003302284442773043</v>
       </c>
       <c r="D7">
-        <v>0.0123660312231572</v>
+        <v>0.02936714346541607</v>
       </c>
       <c r="E7">
-        <v>-0.02152128885856366</v>
+        <v>0.04160787984854682</v>
       </c>
       <c r="F7">
-        <v>0.05004227762379151</v>
+        <v>0.004314663435003447</v>
       </c>
       <c r="G7">
-        <v>-0.06504593837510927</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.02525273398999587</v>
+      </c>
+      <c r="H7">
+        <v>-0.03780692190145541</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.01550057323166945</v>
+        <v>0.006827821730934435</v>
       </c>
       <c r="C8">
-        <v>-0.01628546790859783</v>
+        <v>0.002761387023064998</v>
       </c>
       <c r="D8">
-        <v>0.005841597731052853</v>
+        <v>0.01172574673062779</v>
       </c>
       <c r="E8">
-        <v>-0.02844737231103802</v>
+        <v>0.005518145916968645</v>
       </c>
       <c r="F8">
-        <v>0.1005513062921252</v>
+        <v>0.01879540692176254</v>
       </c>
       <c r="G8">
-        <v>-0.05516374379069817</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.04026302271951742</v>
+      </c>
+      <c r="H8">
+        <v>-0.04148015351981314</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.03234829562691654</v>
+        <v>0.03677533787411577</v>
       </c>
       <c r="C9">
-        <v>-0.01533556636993689</v>
+        <v>0.001693493622778772</v>
       </c>
       <c r="D9">
-        <v>-0.0003514740052258466</v>
+        <v>0.04051913168856998</v>
       </c>
       <c r="E9">
-        <v>-0.03047342959271045</v>
+        <v>0.00673331156892981</v>
       </c>
       <c r="F9">
-        <v>0.09580131183767121</v>
+        <v>0.0240863623932637</v>
       </c>
       <c r="G9">
-        <v>-0.04882586373775055</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.04745609584533746</v>
+      </c>
+      <c r="H9">
+        <v>-0.05506128116272777</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.03718859269622509</v>
+        <v>0.1035045165660371</v>
       </c>
       <c r="C10">
-        <v>0.07998486746770112</v>
+        <v>-0.001979804645968712</v>
       </c>
       <c r="D10">
-        <v>-0.06371350502252771</v>
+        <v>-0.1688227116154496</v>
       </c>
       <c r="E10">
-        <v>0.1241970782126092</v>
+        <v>-0.002256869281084963</v>
       </c>
       <c r="F10">
-        <v>0.05128597155091401</v>
+        <v>-0.03427571666550681</v>
       </c>
       <c r="G10">
-        <v>-0.002631547653806858</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.02955352248091608</v>
+      </c>
+      <c r="H10">
+        <v>-0.003081913038121405</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.03132851467236895</v>
+        <v>0.0233821493646243</v>
       </c>
       <c r="C11">
-        <v>-0.02906829288065608</v>
+        <v>0.01307869201741239</v>
       </c>
       <c r="D11">
-        <v>0.01116687315611042</v>
+        <v>0.04476243862284778</v>
       </c>
       <c r="E11">
-        <v>-0.02101066046331551</v>
+        <v>-0.001883568852095078</v>
       </c>
       <c r="F11">
-        <v>0.04617758444634006</v>
+        <v>0.01209767433061075</v>
       </c>
       <c r="G11">
-        <v>-0.02262207669254413</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.02684402257872046</v>
+      </c>
+      <c r="H11">
+        <v>-0.0492267545120374</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.03921840058352623</v>
+        <v>0.02800155728753388</v>
       </c>
       <c r="C12">
-        <v>-0.02860067546170756</v>
+        <v>0.009633983548226621</v>
       </c>
       <c r="D12">
-        <v>0.004856549986564551</v>
+        <v>0.04426179410138077</v>
       </c>
       <c r="E12">
-        <v>-0.03225753182601918</v>
+        <v>0.0081566252443784</v>
       </c>
       <c r="F12">
-        <v>0.02522511366786565</v>
+        <v>0.0152111909585617</v>
       </c>
       <c r="G12">
-        <v>-0.01016553780047704</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.007928295024531065</v>
+      </c>
+      <c r="H12">
+        <v>-0.02209971135239659</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.01365927371952353</v>
+        <v>0.02888159396794308</v>
       </c>
       <c r="C13">
-        <v>-0.02467342143541401</v>
+        <v>-0.01240472248573013</v>
       </c>
       <c r="D13">
-        <v>-0.004743835915509987</v>
+        <v>0.0171984629674982</v>
       </c>
       <c r="E13">
-        <v>0.008979411229077019</v>
+        <v>-0.0137156889808706</v>
       </c>
       <c r="F13">
-        <v>0.08356995271145469</v>
+        <v>0.02249994175282255</v>
       </c>
       <c r="G13">
-        <v>-0.04581554814672004</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.06068768699727451</v>
+      </c>
+      <c r="H13">
+        <v>-0.07377776080248655</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.0139342235720253</v>
+        <v>0.01895123564357607</v>
       </c>
       <c r="C14">
-        <v>-0.003018024833444878</v>
+        <v>-3.32122605020975e-05</v>
       </c>
       <c r="D14">
-        <v>-0.003365610100247638</v>
+        <v>0.01074054881495997</v>
       </c>
       <c r="E14">
-        <v>-0.02590021923578248</v>
+        <v>0.01217544050443586</v>
       </c>
       <c r="F14">
-        <v>0.06452238640541315</v>
+        <v>0.01587625756099912</v>
       </c>
       <c r="G14">
-        <v>-0.05354946618114247</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.04048719901299428</v>
+      </c>
+      <c r="H14">
+        <v>-0.0122787707143043</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1090,39 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.02753711437840935</v>
+        <v>0.02466991251743695</v>
       </c>
       <c r="C16">
-        <v>-0.03181921563552348</v>
+        <v>0.01230140475636562</v>
       </c>
       <c r="D16">
-        <v>0.006145683853972496</v>
+        <v>0.03683008170191012</v>
       </c>
       <c r="E16">
-        <v>-0.01906098904277891</v>
+        <v>0.001774790152197487</v>
       </c>
       <c r="F16">
-        <v>0.04724086703643085</v>
+        <v>0.01587480975521723</v>
       </c>
       <c r="G16">
-        <v>-0.02276608915648544</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.02307063291693381</v>
+      </c>
+      <c r="H16">
+        <v>-0.03691970850964212</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1142,13 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1168,91 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.0322762868050191</v>
+        <v>0.03198486051880887</v>
       </c>
       <c r="C19">
-        <v>-0.03017537053161699</v>
+        <v>0.001648082150852632</v>
       </c>
       <c r="D19">
-        <v>0.01258678223034916</v>
+        <v>0.03511480779036016</v>
       </c>
       <c r="E19">
-        <v>-0.0152825962289081</v>
+        <v>0.003614240702606068</v>
       </c>
       <c r="F19">
-        <v>0.09659655733073046</v>
+        <v>0.02493523969074914</v>
       </c>
       <c r="G19">
-        <v>-0.06090498186060807</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>0.05603832985644314</v>
+      </c>
+      <c r="H19">
+        <v>-0.06022009026498477</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.002430449250685404</v>
+        <v>0.01168200599179027</v>
       </c>
       <c r="C20">
-        <v>-0.008011415676186831</v>
+        <v>-0.003911200623605122</v>
       </c>
       <c r="D20">
-        <v>-0.002505640566904963</v>
+        <v>0.01976386920307982</v>
       </c>
       <c r="E20">
-        <v>-0.01628989140881306</v>
+        <v>0.003342636850371596</v>
       </c>
       <c r="F20">
-        <v>0.07702056082434432</v>
+        <v>0.01614711138966769</v>
       </c>
       <c r="G20">
-        <v>-0.07447099987576954</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.05247610813941012</v>
+      </c>
+      <c r="H20">
+        <v>-0.02681874695084611</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.002820862069109563</v>
+        <v>0.01699107572325712</v>
       </c>
       <c r="C21">
-        <v>0.01241384979024591</v>
+        <v>-0.005532956215895342</v>
       </c>
       <c r="D21">
-        <v>0.01631206592182806</v>
+        <v>0.01967340023376812</v>
       </c>
       <c r="E21">
-        <v>-0.03153439973912786</v>
+        <v>0.01745388867622307</v>
       </c>
       <c r="F21">
-        <v>0.04719575500666782</v>
+        <v>0.01164425406043223</v>
       </c>
       <c r="G21">
-        <v>-0.02089134781072834</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.04893411831273801</v>
+      </c>
+      <c r="H21">
+        <v>-0.04079236682830224</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1272,13 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1298,299 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.02808108038186658</v>
+        <v>0.02019422639128741</v>
       </c>
       <c r="C24">
-        <v>-0.02729927289371353</v>
+        <v>0.007013711780305899</v>
       </c>
       <c r="D24">
-        <v>-0.0008812552629749382</v>
+        <v>0.04063249317204891</v>
       </c>
       <c r="E24">
-        <v>-0.0074285922633886</v>
+        <v>8.904995021285745e-05</v>
       </c>
       <c r="F24">
-        <v>0.04210987063008106</v>
+        <v>0.010934296672453</v>
       </c>
       <c r="G24">
-        <v>-0.02031217599391994</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.01717955791368389</v>
+      </c>
+      <c r="H24">
+        <v>-0.04573372142563766</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.02830726202135438</v>
+        <v>0.03234748848382545</v>
       </c>
       <c r="C25">
-        <v>-0.0209581298501279</v>
+        <v>0.004913530529003773</v>
       </c>
       <c r="D25">
-        <v>0.01300209075822503</v>
+        <v>0.0409997178229137</v>
       </c>
       <c r="E25">
-        <v>-0.02236624369010836</v>
+        <v>0.00509881694285629</v>
       </c>
       <c r="F25">
-        <v>0.05123772013755024</v>
+        <v>0.0191525755243571</v>
       </c>
       <c r="G25">
-        <v>-0.01172384370337468</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.02106370206812535</v>
+      </c>
+      <c r="H25">
+        <v>-0.04237945200165027</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.01923832981100825</v>
+        <v>0.01777289012101231</v>
       </c>
       <c r="C26">
-        <v>-0.01711412736317378</v>
+        <v>-0.0180784860329935</v>
       </c>
       <c r="D26">
-        <v>0.01869110570241338</v>
+        <v>0.007952327440773146</v>
       </c>
       <c r="E26">
-        <v>0.005140175619156861</v>
+        <v>-0.0003599264808927655</v>
       </c>
       <c r="F26">
-        <v>0.06541254307732572</v>
+        <v>0.002248492286364214</v>
       </c>
       <c r="G26">
-        <v>-0.04325748643149779</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.03001285855788995</v>
+      </c>
+      <c r="H26">
+        <v>-0.0239002737477991</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>-0.05146397737671484</v>
+        <v>0.02066869398988094</v>
       </c>
       <c r="C27">
-        <v>-0.02187488565262527</v>
+        <v>0.007971487610249227</v>
       </c>
       <c r="D27">
-        <v>-0.02739259856618582</v>
+        <v>0.01299882226784739</v>
       </c>
       <c r="E27">
-        <v>-0.03116405231452597</v>
+        <v>0.002646965354040273</v>
       </c>
       <c r="F27">
-        <v>0.04451935928171143</v>
+        <v>0.01280073421296271</v>
       </c>
       <c r="G27">
-        <v>-0.0514895690649377</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>0.01037682144322446</v>
+      </c>
+      <c r="H27">
+        <v>0.004887581941390978</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.06383511982275784</v>
+        <v>0.1531954191621306</v>
       </c>
       <c r="C28">
-        <v>0.1080735853386619</v>
+        <v>-0.01185728680709538</v>
       </c>
       <c r="D28">
-        <v>-0.09193434044997388</v>
+        <v>-0.2219302956768099</v>
       </c>
       <c r="E28">
-        <v>0.1530675716156965</v>
+        <v>0.006237849039306112</v>
       </c>
       <c r="F28">
-        <v>0.05479476788120203</v>
+        <v>-0.02843855832822989</v>
       </c>
       <c r="G28">
-        <v>-0.003601317092551907</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>0.0174160886918979</v>
+      </c>
+      <c r="H28">
+        <v>0.007185572480296843</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.01882945345487796</v>
+        <v>0.02384201562448691</v>
       </c>
       <c r="C29">
-        <v>-0.003956467401773725</v>
+        <v>0.001657307928882937</v>
       </c>
       <c r="D29">
-        <v>-0.004222552322636402</v>
+        <v>0.01089989017294021</v>
       </c>
       <c r="E29">
-        <v>-0.03358894174456348</v>
+        <v>0.01267900549160628</v>
       </c>
       <c r="F29">
-        <v>0.06266967363831411</v>
+        <v>0.01721727434337483</v>
       </c>
       <c r="G29">
-        <v>-0.04293158606534888</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.03935149347957072</v>
+      </c>
+      <c r="H29">
+        <v>-0.003992600702353425</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.07928844830951441</v>
+        <v>0.05361611287142692</v>
       </c>
       <c r="C30">
-        <v>-0.0612392906890297</v>
+        <v>0.003199248112776127</v>
       </c>
       <c r="D30">
-        <v>-0.008042358530828318</v>
+        <v>0.08832029312114341</v>
       </c>
       <c r="E30">
-        <v>-0.04676098718870067</v>
+        <v>-0.03294611997010496</v>
       </c>
       <c r="F30">
-        <v>0.1033025626956067</v>
+        <v>0.04884269734278358</v>
       </c>
       <c r="G30">
-        <v>-0.06313414871584461</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>0.05958034166892349</v>
+      </c>
+      <c r="H30">
+        <v>-0.0776053692576764</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.05885962188947229</v>
+        <v>0.05037075130702937</v>
       </c>
       <c r="C31">
-        <v>-0.03358295669819494</v>
+        <v>0.01171756329637735</v>
       </c>
       <c r="D31">
-        <v>0.004656589940729792</v>
+        <v>0.02291408946793731</v>
       </c>
       <c r="E31">
-        <v>-0.005071076716982766</v>
+        <v>-0.005276830903245396</v>
       </c>
       <c r="F31">
-        <v>0.04953940536364185</v>
+        <v>0.004588358989066462</v>
       </c>
       <c r="G31">
-        <v>-0.04857921685021993</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.01799141564231072</v>
+      </c>
+      <c r="H31">
+        <v>-0.002752945002150559</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.01650453741409262</v>
+        <v>0.01074569333422663</v>
       </c>
       <c r="C32">
-        <v>-0.01585042138656647</v>
+        <v>0.01386064845945839</v>
       </c>
       <c r="D32">
-        <v>0.007005075495797834</v>
+        <v>0.01035022404569538</v>
       </c>
       <c r="E32">
-        <v>-0.06010364582034367</v>
+        <v>0.02893191516471084</v>
       </c>
       <c r="F32">
-        <v>0.07590580582321445</v>
+        <v>0.03965207448073989</v>
       </c>
       <c r="G32">
-        <v>-0.04292600790240594</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.03022108134454554</v>
+      </c>
+      <c r="H32">
+        <v>-0.05703151419534006</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.04124164847313358</v>
+        <v>0.0354480574627808</v>
       </c>
       <c r="C33">
-        <v>-0.03934830106464469</v>
+        <v>0.002298644621526249</v>
       </c>
       <c r="D33">
-        <v>0.03144220624126595</v>
+        <v>0.0366949534587537</v>
       </c>
       <c r="E33">
-        <v>-0.01580828725113529</v>
+        <v>-0.02225330226924507</v>
       </c>
       <c r="F33">
-        <v>0.08241887593541998</v>
+        <v>-6.410483566872662e-05</v>
       </c>
       <c r="G33">
-        <v>-0.06038503376048454</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.04627292960614526</v>
+      </c>
+      <c r="H33">
+        <v>-0.04765437076848657</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.02713826080440669</v>
+        <v>0.02985805222375723</v>
       </c>
       <c r="C34">
-        <v>-0.02639108140853282</v>
+        <v>0.0205923612276667</v>
       </c>
       <c r="D34">
-        <v>0.006232558237509419</v>
+        <v>0.03719502964463789</v>
       </c>
       <c r="E34">
-        <v>-0.02612905051886914</v>
+        <v>0.0118273781084102</v>
       </c>
       <c r="F34">
-        <v>0.05505772426204004</v>
+        <v>0.01801296692363017</v>
       </c>
       <c r="G34">
-        <v>-0.01691243921036266</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.01476052180105175</v>
+      </c>
+      <c r="H34">
+        <v>-0.03614337245899112</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1610,39 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.01432192342992867</v>
+        <v>0.01845072873466459</v>
       </c>
       <c r="C36">
-        <v>-0.002690433749320576</v>
+        <v>-0.005862232032592443</v>
       </c>
       <c r="D36">
-        <v>0.003639061866156972</v>
+        <v>0.003389166542903406</v>
       </c>
       <c r="E36">
-        <v>-0.02003693410107368</v>
+        <v>0.007325258143194222</v>
       </c>
       <c r="F36">
-        <v>0.03895424298394443</v>
+        <v>0.002844393659503554</v>
       </c>
       <c r="G36">
-        <v>-0.03304472414763909</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.02173791096338162</v>
+      </c>
+      <c r="H36">
+        <v>-0.01546315369636268</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1662,195 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.001850950383124535</v>
+        <v>0.02640993410215675</v>
       </c>
       <c r="C38">
-        <v>0.004841760569297696</v>
+        <v>0.01658430438984469</v>
       </c>
       <c r="D38">
-        <v>0.01598359474501771</v>
+        <v>0.01114919145624947</v>
       </c>
       <c r="E38">
-        <v>0.02972933471406073</v>
+        <v>-0.0006582957141601849</v>
       </c>
       <c r="F38">
-        <v>0.0386198548307872</v>
+        <v>0.01044183260493099</v>
       </c>
       <c r="G38">
-        <v>-0.01434766207026479</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>0.02432520448999322</v>
+      </c>
+      <c r="H38">
+        <v>-0.04401900833468512</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.02827836407015421</v>
+        <v>0.01946271776792285</v>
       </c>
       <c r="C39">
-        <v>-0.04874165170748578</v>
+        <v>0.01097669888021903</v>
       </c>
       <c r="D39">
-        <v>0.01235693555349458</v>
+        <v>0.08570883354197134</v>
       </c>
       <c r="E39">
-        <v>-0.02377090010510243</v>
+        <v>-0.007583796647255946</v>
       </c>
       <c r="F39">
-        <v>0.06383925401180536</v>
+        <v>0.01868235768410073</v>
       </c>
       <c r="G39">
-        <v>-0.02945342299544394</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.04081343250941629</v>
+      </c>
+      <c r="H39">
+        <v>-0.07767262117258636</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.03159486559514935</v>
+        <v>0.03099862056249932</v>
       </c>
       <c r="C40">
-        <v>-0.07284090127803836</v>
+        <v>0.0027174991096203</v>
       </c>
       <c r="D40">
-        <v>-0.01848043397549376</v>
+        <v>0.02997232428350421</v>
       </c>
       <c r="E40">
-        <v>0.01401277389536938</v>
+        <v>-0.02601935075913587</v>
       </c>
       <c r="F40">
-        <v>0.07841118002431538</v>
+        <v>0.03424557631357926</v>
       </c>
       <c r="G40">
-        <v>-0.05141005739714272</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.02092822005826021</v>
+      </c>
+      <c r="H40">
+        <v>-0.06436559399575396</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.0008919559478310001</v>
+        <v>0.01126749134707804</v>
       </c>
       <c r="C41">
-        <v>0.0003521618728453479</v>
+        <v>-0.003504640810719355</v>
       </c>
       <c r="D41">
-        <v>0.007855292368110859</v>
+        <v>-0.01552313290866621</v>
       </c>
       <c r="E41">
-        <v>-0.0007845337009739769</v>
+        <v>-0.0006286131650263432</v>
       </c>
       <c r="F41">
-        <v>0.01938437592882437</v>
+        <v>-0.002539067365405414</v>
       </c>
       <c r="G41">
-        <v>-0.05068034339027622</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.001937796918140249</v>
+      </c>
+      <c r="H41">
+        <v>0.006198861264430221</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>-0.3527850150846664</v>
+        <v>0.1704003839397872</v>
       </c>
       <c r="C42">
-        <v>0.1043514052616333</v>
+        <v>-0.06026552686649136</v>
       </c>
       <c r="D42">
-        <v>0.7758349673679573</v>
+        <v>0.2419007038221386</v>
       </c>
       <c r="E42">
-        <v>0.3367803060718262</v>
+        <v>-0.2045862668579375</v>
       </c>
       <c r="F42">
-        <v>-0.2940120044087532</v>
+        <v>-0.9031253338819704</v>
       </c>
       <c r="G42">
-        <v>-0.160187964414818</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>-0.1787644501073015</v>
+      </c>
+      <c r="H42">
+        <v>-0.008082591512365614</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.0001914359926369417</v>
+        <v>0.01419011777064159</v>
       </c>
       <c r="C43">
-        <v>0.000882229578160495</v>
+        <v>-0.003472318410076361</v>
       </c>
       <c r="D43">
-        <v>0.01158635852469855</v>
+        <v>-0.0135531807251133</v>
       </c>
       <c r="E43">
-        <v>-0.0007385894143918113</v>
+        <v>-0.003610744873159353</v>
       </c>
       <c r="F43">
-        <v>0.03598324682865364</v>
+        <v>-0.004559239432133114</v>
       </c>
       <c r="G43">
-        <v>-0.04748793930154411</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.002787233037261699</v>
+      </c>
+      <c r="H43">
+        <v>-0.007792183443324306</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.01622806738318001</v>
+        <v>0.02054185966634045</v>
       </c>
       <c r="C44">
-        <v>-0.004823702212291766</v>
+        <v>0.006651246079877704</v>
       </c>
       <c r="D44">
-        <v>0.008385815601753922</v>
+        <v>0.03190998731931135</v>
       </c>
       <c r="E44">
-        <v>0.009175025568424913</v>
+        <v>0.005788203913168313</v>
       </c>
       <c r="F44">
-        <v>0.110714224306296</v>
+        <v>0.002811951662750963</v>
       </c>
       <c r="G44">
-        <v>-0.08631789058556107</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.04194829180515176</v>
+      </c>
+      <c r="H44">
+        <v>-0.06364046921954725</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +1870,91 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.01970710311543082</v>
+        <v>0.01617684548984082</v>
       </c>
       <c r="C46">
-        <v>-0.0225477089663994</v>
+        <v>-0.004277925374259698</v>
       </c>
       <c r="D46">
-        <v>0.01630636224145433</v>
+        <v>0.01282907885331646</v>
       </c>
       <c r="E46">
-        <v>-0.0317018823928653</v>
+        <v>-0.001751305931896754</v>
       </c>
       <c r="F46">
-        <v>0.0752378054503559</v>
+        <v>0.01162793296863612</v>
       </c>
       <c r="G46">
-        <v>-0.06001687437091164</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.04459200366305579</v>
+      </c>
+      <c r="H46">
+        <v>-0.00689416077574625</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.09106984788566715</v>
+        <v>0.0739807592679102</v>
       </c>
       <c r="C47">
-        <v>-0.03627415445469636</v>
+        <v>0.02932774186768262</v>
       </c>
       <c r="D47">
-        <v>-0.006930247969565478</v>
+        <v>0.04653377937338402</v>
       </c>
       <c r="E47">
-        <v>-0.02396659480189462</v>
+        <v>0.001445198372585955</v>
       </c>
       <c r="F47">
-        <v>0.03996213758853187</v>
+        <v>0.01466099108067156</v>
       </c>
       <c r="G47">
-        <v>-0.07944371031849833</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>-0.008680132551164161</v>
+      </c>
+      <c r="H47">
+        <v>0.02377171979528064</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.01791611924675476</v>
+        <v>0.02126966560139369</v>
       </c>
       <c r="C48">
-        <v>-0.012027959296768</v>
+        <v>0.005874400905510393</v>
       </c>
       <c r="D48">
-        <v>0.008201650857698792</v>
+        <v>0.01017398538275382</v>
       </c>
       <c r="E48">
-        <v>-0.0192535534852666</v>
+        <v>-0.0001482617107240966</v>
       </c>
       <c r="F48">
-        <v>0.04298093693645121</v>
+        <v>0.00797939604841638</v>
       </c>
       <c r="G48">
-        <v>-0.02374712284790034</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>0.02325235312252266</v>
+      </c>
+      <c r="H48">
+        <v>-0.01756526838636515</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +1974,65 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.08473418942726021</v>
+        <v>0.07154231385882567</v>
       </c>
       <c r="C50">
-        <v>-0.03490724220092172</v>
+        <v>0.02629196562881675</v>
       </c>
       <c r="D50">
-        <v>0.01125708350245062</v>
+        <v>0.04516564197241142</v>
       </c>
       <c r="E50">
-        <v>-0.02796504664560074</v>
+        <v>0.0141095786138328</v>
       </c>
       <c r="F50">
-        <v>0.05004400913861461</v>
+        <v>0.00889494536407268</v>
       </c>
       <c r="G50">
-        <v>-0.03979404032893735</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>0.007610138148041477</v>
+      </c>
+      <c r="H50">
+        <v>0.006647118315812583</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.01539748521310431</v>
+        <v>0.02139170342583822</v>
       </c>
       <c r="C51">
-        <v>0.004048079651032676</v>
+        <v>-0.0004719488741427939</v>
       </c>
       <c r="D51">
-        <v>-0.004790172849950225</v>
+        <v>0.004873229537874169</v>
       </c>
       <c r="E51">
-        <v>0.01861816913529344</v>
+        <v>0.00539514777348269</v>
       </c>
       <c r="F51">
-        <v>0.09812327219034657</v>
+        <v>0.004817706651288953</v>
       </c>
       <c r="G51">
-        <v>-0.06212625315679638</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>0.03736974503564938</v>
+      </c>
+      <c r="H51">
+        <v>-0.04888978481557298</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2052,247 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.09882949527295305</v>
+        <v>0.08895193543173152</v>
       </c>
       <c r="C53">
-        <v>-0.04540561909512265</v>
+        <v>0.038139264999669</v>
       </c>
       <c r="D53">
-        <v>-0.004629188359524324</v>
+        <v>0.08255918423421531</v>
       </c>
       <c r="E53">
-        <v>-0.04656266766878196</v>
+        <v>0.004412495324477435</v>
       </c>
       <c r="F53">
-        <v>-0.0227668865003465</v>
+        <v>0.02875622583937422</v>
       </c>
       <c r="G53">
-        <v>-0.01749124814649504</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>-0.03606131323834718</v>
+      </c>
+      <c r="H53">
+        <v>0.03647992319609981</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.01456861717795707</v>
+        <v>0.02821929200359711</v>
       </c>
       <c r="C54">
-        <v>-0.000411916574587976</v>
+        <v>0.007750863459414451</v>
       </c>
       <c r="D54">
-        <v>-0.00493005561421518</v>
+        <v>-0.01420302864780146</v>
       </c>
       <c r="E54">
-        <v>-0.02981614191729237</v>
+        <v>0.006175979050092956</v>
       </c>
       <c r="F54">
-        <v>0.05724992171669151</v>
+        <v>0.008026831899375381</v>
       </c>
       <c r="G54">
-        <v>-0.04894674984685177</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>0.0399447919429002</v>
+      </c>
+      <c r="H54">
+        <v>0.0001743954438856197</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.09968042208286378</v>
+        <v>0.07527578212787507</v>
       </c>
       <c r="C55">
-        <v>-0.02640987449960568</v>
+        <v>0.03446166375902498</v>
       </c>
       <c r="D55">
-        <v>0.0002288303857651078</v>
+        <v>0.07719427817651787</v>
       </c>
       <c r="E55">
-        <v>-0.0641321289165207</v>
+        <v>0.01294349514194017</v>
       </c>
       <c r="F55">
-        <v>-0.0141946720122111</v>
+        <v>0.02073485472676948</v>
       </c>
       <c r="G55">
-        <v>-0.05010125361716806</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>-0.01470473965027471</v>
+      </c>
+      <c r="H55">
+        <v>0.04572456621225765</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1411951857051758</v>
+        <v>0.1228713757052228</v>
       </c>
       <c r="C56">
-        <v>-0.06214978015221211</v>
+        <v>0.05650499221132922</v>
       </c>
       <c r="D56">
-        <v>-0.04597470696443112</v>
+        <v>0.1001730650582944</v>
       </c>
       <c r="E56">
-        <v>-0.07224139131274572</v>
+        <v>0.006198344974290554</v>
       </c>
       <c r="F56">
-        <v>-0.05584119603028093</v>
+        <v>0.05311155525351458</v>
       </c>
       <c r="G56">
-        <v>0.02556482170930623</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>-0.07044535424734798</v>
+      </c>
+      <c r="H56">
+        <v>0.06140941563585837</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>-0.04407602807473811</v>
+        <v>0.03746378956230319</v>
       </c>
       <c r="C57">
-        <v>-0.01707780662014047</v>
+        <v>-0.01083225251962079</v>
       </c>
       <c r="D57">
-        <v>0.01320797664127017</v>
+        <v>0.03147026722193804</v>
       </c>
       <c r="E57">
-        <v>0.01927303679083246</v>
+        <v>-0.01156834977633874</v>
       </c>
       <c r="F57">
-        <v>0.04873035325304431</v>
+        <v>0.006542931916229496</v>
       </c>
       <c r="G57">
-        <v>-0.0504740094831572</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>0.07252547686361173</v>
+      </c>
+      <c r="H57">
+        <v>-0.04769970345339211</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.2101637812947801</v>
+        <v>0.1390332349367435</v>
       </c>
       <c r="C58">
-        <v>-0.1482592344371259</v>
+        <v>0.04939538804886</v>
       </c>
       <c r="D58">
-        <v>0.08039657183442336</v>
+        <v>0.1491550381267962</v>
       </c>
       <c r="E58">
-        <v>-0.06027438880539266</v>
+        <v>-0.2243096781122985</v>
       </c>
       <c r="F58">
-        <v>0.407341879675146</v>
+        <v>-0.05790895459442558</v>
       </c>
       <c r="G58">
-        <v>-0.03451826260412185</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>0.8131538327287203</v>
+      </c>
+      <c r="H58">
+        <v>0.3870638808066605</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.05599201256013831</v>
+        <v>0.1645801530009356</v>
       </c>
       <c r="C59">
-        <v>0.06001535181971074</v>
+        <v>-0.003168137737112657</v>
       </c>
       <c r="D59">
-        <v>-0.1047828942921253</v>
+        <v>-0.2195998127183142</v>
       </c>
       <c r="E59">
-        <v>0.1501464548504129</v>
+        <v>-0.01237520283897757</v>
       </c>
       <c r="F59">
-        <v>0.06331782922994157</v>
+        <v>-0.002535973956835772</v>
       </c>
       <c r="G59">
-        <v>0.02502944299242716</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>0.01919765776204361</v>
+      </c>
+      <c r="H59">
+        <v>-0.02710396424706999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.1518956340600302</v>
+        <v>0.1913258331016029</v>
       </c>
       <c r="C60">
-        <v>-0.09491720212030635</v>
+        <v>0.02876423159484558</v>
       </c>
       <c r="D60">
-        <v>0.02080798970918971</v>
+        <v>0.02495161521237931</v>
       </c>
       <c r="E60">
-        <v>0.1091943108376852</v>
+        <v>-0.05258197529825388</v>
       </c>
       <c r="F60">
-        <v>0.15049753699698</v>
+        <v>0.0563539390200791</v>
       </c>
       <c r="G60">
-        <v>0.315046684645348</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>0.02370241414028035</v>
+      </c>
+      <c r="H60">
+        <v>-0.374445642679198</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.02143217178144225</v>
+        <v>0.02411817406924482</v>
       </c>
       <c r="C61">
-        <v>-0.0266578392469349</v>
+        <v>0.01241859572533251</v>
       </c>
       <c r="D61">
-        <v>0.01254449265379057</v>
+        <v>0.05246408522345503</v>
       </c>
       <c r="E61">
-        <v>-0.01867780071075194</v>
+        <v>0.0015641554339468</v>
       </c>
       <c r="F61">
-        <v>0.02900005697460439</v>
+        <v>0.02071666907934468</v>
       </c>
       <c r="G61">
-        <v>-0.01637288489118924</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>0.02519357720306898</v>
+      </c>
+      <c r="H61">
+        <v>-0.05761566505440616</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2312,195 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.008711630479942705</v>
+        <v>0.01284921070108251</v>
       </c>
       <c r="C63">
-        <v>-0.01793816194207729</v>
+        <v>-0.0007081455200645217</v>
       </c>
       <c r="D63">
-        <v>0.0180731455521231</v>
+        <v>0.021214353367969</v>
       </c>
       <c r="E63">
-        <v>-0.02280802893222904</v>
+        <v>0.004420364176234092</v>
       </c>
       <c r="F63">
-        <v>0.01665821730165064</v>
+        <v>0.01089387848895396</v>
       </c>
       <c r="G63">
-        <v>-0.07327320641423958</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>0.01748074008094552</v>
+      </c>
+      <c r="H63">
+        <v>-0.01158742648364901</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.03702074354413532</v>
+        <v>0.04142861764662084</v>
       </c>
       <c r="C64">
-        <v>-0.002204241490540157</v>
+        <v>0.0116278615744184</v>
       </c>
       <c r="D64">
-        <v>-0.002947748630224121</v>
+        <v>0.0371009831404327</v>
       </c>
       <c r="E64">
-        <v>-0.05140884646708448</v>
+        <v>0.01105656426862314</v>
       </c>
       <c r="F64">
-        <v>0.04486505557301315</v>
+        <v>0.005074379870118254</v>
       </c>
       <c r="G64">
-        <v>-0.05525785443847979</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>0.005957081080885726</v>
+      </c>
+      <c r="H64">
+        <v>-0.04101003995670388</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.0321429944843602</v>
+        <v>0.03953952301608055</v>
       </c>
       <c r="C65">
-        <v>-0.0144875285533905</v>
+        <v>0.005095324616839731</v>
       </c>
       <c r="D65">
-        <v>0.003291636230694973</v>
+        <v>0.07079329723453308</v>
       </c>
       <c r="E65">
-        <v>-0.02170179215072276</v>
+        <v>0.007628907116135624</v>
       </c>
       <c r="F65">
-        <v>0.007709078341316656</v>
+        <v>0.03896333079146858</v>
       </c>
       <c r="G65">
-        <v>0.01753090871514493</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-0.00353553408419984</v>
+      </c>
+      <c r="H65">
+        <v>-0.07331875098585433</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.03308815405849948</v>
+        <v>0.02903740035606913</v>
       </c>
       <c r="C66">
-        <v>-0.06133509158030169</v>
+        <v>0.01892535595769407</v>
       </c>
       <c r="D66">
-        <v>0.01093487859490401</v>
+        <v>0.1056766190517238</v>
       </c>
       <c r="E66">
-        <v>-0.03525223163189938</v>
+        <v>-0.009707118659423209</v>
       </c>
       <c r="F66">
-        <v>0.0469167815852426</v>
+        <v>0.03900670240588446</v>
       </c>
       <c r="G66">
-        <v>-0.01466682830573921</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>0.03767009269176021</v>
+      </c>
+      <c r="H66">
+        <v>-0.082119925678674</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.01072492285354528</v>
+        <v>0.04680490934619182</v>
       </c>
       <c r="C67">
-        <v>-0.0006494515145162771</v>
+        <v>0.0183803633694126</v>
       </c>
       <c r="D67">
-        <v>0.007877010935736216</v>
+        <v>0.01106868906459446</v>
       </c>
       <c r="E67">
-        <v>0.03417664879877821</v>
+        <v>-0.003484559367091657</v>
       </c>
       <c r="F67">
-        <v>0.02025514842396312</v>
+        <v>0.01992564218921663</v>
       </c>
       <c r="G67">
-        <v>-0.004754982091011319</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>0.01265732649554004</v>
+      </c>
+      <c r="H67">
+        <v>-0.04473596049502471</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.07316486756448012</v>
+        <v>0.1592935093327624</v>
       </c>
       <c r="C68">
-        <v>0.08605062673168251</v>
+        <v>-0.02755383225152899</v>
       </c>
       <c r="D68">
-        <v>-0.1167795363553087</v>
+        <v>-0.2362012587475184</v>
       </c>
       <c r="E68">
-        <v>0.1494761457720471</v>
+        <v>-0.008351940869704359</v>
       </c>
       <c r="F68">
-        <v>0.05825491174156043</v>
+        <v>-0.03810306849489752</v>
       </c>
       <c r="G68">
-        <v>0.06542518987508036</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>0.02653938683782853</v>
+      </c>
+      <c r="H68">
+        <v>0.04835129686889874</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.06577636145754752</v>
+        <v>0.06223993950581429</v>
       </c>
       <c r="C69">
-        <v>-0.04403856218956852</v>
+        <v>0.03005495244921927</v>
       </c>
       <c r="D69">
-        <v>-0.01460786538606128</v>
+        <v>0.04362450558727524</v>
       </c>
       <c r="E69">
-        <v>-0.0123915992455788</v>
+        <v>0.0004462790382633256</v>
       </c>
       <c r="F69">
-        <v>0.02306222134905053</v>
+        <v>0.02662009630679238</v>
       </c>
       <c r="G69">
-        <v>-0.0726067703309939</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>-0.01380799500813379</v>
+      </c>
+      <c r="H69">
+        <v>-0.006290845214331331</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2520,221 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.07690527410238562</v>
+        <v>0.1487417850425078</v>
       </c>
       <c r="C71">
-        <v>0.08725033761752007</v>
+        <v>-0.01379034248729961</v>
       </c>
       <c r="D71">
-        <v>-0.09643220078723318</v>
+        <v>-0.1970457634930514</v>
       </c>
       <c r="E71">
-        <v>0.2036303049344543</v>
+        <v>-0.01552501514490515</v>
       </c>
       <c r="F71">
-        <v>0.04856253122623395</v>
+        <v>-0.04639654328491358</v>
       </c>
       <c r="G71">
-        <v>-0.006736478298955028</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>0.03101788881702202</v>
+      </c>
+      <c r="H71">
+        <v>0.0226472937353022</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.1077682917990531</v>
+        <v>0.07815334929731607</v>
       </c>
       <c r="C72">
-        <v>-0.08143333368101037</v>
+        <v>0.04105405595447736</v>
       </c>
       <c r="D72">
-        <v>-0.0402693254566767</v>
+        <v>0.07442694091636616</v>
       </c>
       <c r="E72">
-        <v>-0.03166996784721559</v>
+        <v>-0.01740579565282546</v>
       </c>
       <c r="F72">
-        <v>0.08434597598295246</v>
+        <v>0.07255107273341053</v>
       </c>
       <c r="G72">
-        <v>0.09930701867842186</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>0.02723071595789948</v>
+      </c>
+      <c r="H72">
+        <v>-0.1319372506133039</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.2155212417991877</v>
+        <v>0.2577236691272327</v>
       </c>
       <c r="C73">
-        <v>-0.1265439721638764</v>
+        <v>0.04415472500969139</v>
       </c>
       <c r="D73">
-        <v>0.02741530463088179</v>
+        <v>0.08632910333632957</v>
       </c>
       <c r="E73">
-        <v>0.200530193074219</v>
+        <v>-0.09319375737720631</v>
       </c>
       <c r="F73">
-        <v>0.178839363798924</v>
+        <v>0.06589794041586401</v>
       </c>
       <c r="G73">
-        <v>0.4481357999210518</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>0.03988881887797899</v>
+      </c>
+      <c r="H73">
+        <v>-0.483137089584723</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.1361705532030653</v>
+        <v>0.1189260674776066</v>
       </c>
       <c r="C74">
-        <v>-0.03562779608174307</v>
+        <v>0.0556368230578367</v>
       </c>
       <c r="D74">
-        <v>-0.0107155429057673</v>
+        <v>0.1058818325522531</v>
       </c>
       <c r="E74">
-        <v>-0.05156030724939613</v>
+        <v>0.00862059733744114</v>
       </c>
       <c r="F74">
-        <v>-0.07428798676120435</v>
+        <v>0.03526260867118776</v>
       </c>
       <c r="G74">
-        <v>-0.000752324488141145</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>-0.05913999353834885</v>
+      </c>
+      <c r="H74">
+        <v>0.02723535744238995</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.2252973994592039</v>
+        <v>0.2284839271109101</v>
       </c>
       <c r="C75">
-        <v>-0.1031884538204777</v>
+        <v>0.1025940498793313</v>
       </c>
       <c r="D75">
-        <v>-0.09185637831569769</v>
+        <v>0.1604804333375248</v>
       </c>
       <c r="E75">
-        <v>-0.1007216043048499</v>
+        <v>-0.01014379187570988</v>
       </c>
       <c r="F75">
-        <v>-0.0806441128365339</v>
+        <v>0.09900242609706202</v>
       </c>
       <c r="G75">
-        <v>-0.009322109714050297</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>-0.1199200827064449</v>
+      </c>
+      <c r="H75">
+        <v>0.1347585864206363</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.2769558717551347</v>
+        <v>0.1948786406197085</v>
       </c>
       <c r="C76">
-        <v>-0.09924978218891983</v>
+        <v>0.0951875769946128</v>
       </c>
       <c r="D76">
-        <v>-0.1215044997909952</v>
+        <v>0.1572561529270593</v>
       </c>
       <c r="E76">
-        <v>-0.1531345049265692</v>
+        <v>0.03756608815760465</v>
       </c>
       <c r="F76">
-        <v>-0.164277379427078</v>
+        <v>0.09169765835625668</v>
       </c>
       <c r="G76">
-        <v>0.009592349028330735</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>-0.117486113391512</v>
+      </c>
+      <c r="H76">
+        <v>0.1345980182511352</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.1298922209449956</v>
+        <v>0.07106706011237422</v>
       </c>
       <c r="C77">
-        <v>-0.06713494948819791</v>
+        <v>0.01533083406063885</v>
       </c>
       <c r="D77">
-        <v>0.07893596791525857</v>
+        <v>0.07580036834993442</v>
       </c>
       <c r="E77">
-        <v>-0.0336055684429697</v>
+        <v>-0.01627958748700382</v>
       </c>
       <c r="F77">
-        <v>0.1864976147461004</v>
+        <v>-0.01283461664737909</v>
       </c>
       <c r="G77">
-        <v>-0.2300918548022418</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>0.08422116219929378</v>
+      </c>
+      <c r="H77">
+        <v>-0.01199563689084038</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.07418194862275097</v>
+        <v>0.04037335861115281</v>
       </c>
       <c r="C78">
-        <v>-0.05610749189604896</v>
+        <v>0.01603432484723499</v>
       </c>
       <c r="D78">
-        <v>0.04041356587690184</v>
+        <v>0.06540447529522304</v>
       </c>
       <c r="E78">
-        <v>-0.06688764689197838</v>
+        <v>0.0003245740258266398</v>
       </c>
       <c r="F78">
-        <v>0.1115706903897391</v>
+        <v>0.02222179866354896</v>
       </c>
       <c r="G78">
-        <v>-0.0330361036018462</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.06581267494029232</v>
+      </c>
+      <c r="H78">
+        <v>-0.08407211830263367</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +2754,65 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.2646146167682669</v>
+        <v>0.1422213917749268</v>
       </c>
       <c r="C80">
-        <v>0.8199249191911874</v>
+        <v>0.03737469888223938</v>
       </c>
       <c r="D80">
-        <v>0.04878737956114974</v>
+        <v>0.07570860131013023</v>
       </c>
       <c r="E80">
-        <v>-0.4358567785627448</v>
+        <v>0.9338166809294998</v>
       </c>
       <c r="F80">
-        <v>0.1288723751202144</v>
+        <v>-0.2078019513402385</v>
       </c>
       <c r="G80">
-        <v>0.1359158563242199</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>0.1729813602435018</v>
+      </c>
+      <c r="H80">
+        <v>-0.00570975500061804</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1772323603032373</v>
+        <v>0.154735669967787</v>
       </c>
       <c r="C81">
-        <v>-0.07248172619183638</v>
+        <v>0.06759243832355583</v>
       </c>
       <c r="D81">
-        <v>-0.08799896954261444</v>
+        <v>0.1027564953989995</v>
       </c>
       <c r="E81">
-        <v>-0.0885805383043843</v>
+        <v>0.0095791632857554</v>
       </c>
       <c r="F81">
-        <v>-0.1005635657742885</v>
+        <v>0.06736564951863577</v>
       </c>
       <c r="G81">
-        <v>0.01778275659825668</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>-0.08246727004885746</v>
+      </c>
+      <c r="H81">
+        <v>0.088993526740309</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +2832,39 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.03571608900988717</v>
+        <v>0.03323480758879536</v>
       </c>
       <c r="C83">
-        <v>-0.03234869348428465</v>
+        <v>0.006962566513127578</v>
       </c>
       <c r="D83">
-        <v>0.02110009898118341</v>
+        <v>0.02500032583337665</v>
       </c>
       <c r="E83">
-        <v>0.005380063237434181</v>
+        <v>-0.008210994286433874</v>
       </c>
       <c r="F83">
-        <v>0.05740262018150726</v>
+        <v>0.009122573725680032</v>
       </c>
       <c r="G83">
-        <v>-0.03571101554521965</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>0.048031371169356</v>
+      </c>
+      <c r="H83">
+        <v>-0.04069154062130509</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +2884,299 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.2566976640163049</v>
+        <v>0.2142702838139191</v>
       </c>
       <c r="C85">
-        <v>-0.1000608052965855</v>
+        <v>0.08701598436612223</v>
       </c>
       <c r="D85">
-        <v>-0.09730279514757902</v>
+        <v>0.1668640134366546</v>
       </c>
       <c r="E85">
-        <v>-0.1135206510256195</v>
+        <v>-0.003460059395668512</v>
       </c>
       <c r="F85">
-        <v>-0.1067096534598531</v>
+        <v>0.08320529598026269</v>
       </c>
       <c r="G85">
-        <v>-0.02686127651291624</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>-0.1306439984315366</v>
+      </c>
+      <c r="H85">
+        <v>0.09639114482659517</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.00545842955936223</v>
+        <v>0.02676021941277565</v>
       </c>
       <c r="C86">
-        <v>-0.001263291371025447</v>
+        <v>0.004856314834180221</v>
       </c>
       <c r="D86">
-        <v>0.02694085467685407</v>
+        <v>0.03355499324055557</v>
       </c>
       <c r="E86">
-        <v>-0.02797782792702417</v>
+        <v>-0.0004018294819276489</v>
       </c>
       <c r="F86">
-        <v>0.07958459231248297</v>
+        <v>-0.0006165620182185998</v>
       </c>
       <c r="G86">
-        <v>-0.05256254188005236</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>0.05564816017367177</v>
+      </c>
+      <c r="H86">
+        <v>-0.09291876305049337</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.04242797875438064</v>
+        <v>0.02633356023415679</v>
       </c>
       <c r="C87">
-        <v>-0.004303417939889556</v>
+        <v>0.005622918536029829</v>
       </c>
       <c r="D87">
-        <v>0.02041553026808541</v>
+        <v>0.04528356441587892</v>
       </c>
       <c r="E87">
-        <v>-0.007637234537684228</v>
+        <v>0.003277352583165628</v>
       </c>
       <c r="F87">
-        <v>0.1103208803181417</v>
+        <v>0.006471770328002027</v>
       </c>
       <c r="G87">
-        <v>-0.04295967358062944</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>0.08174453632034047</v>
+      </c>
+      <c r="H87">
+        <v>-0.07923903071639911</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.01239770759873844</v>
+        <v>0.04361648730997787</v>
       </c>
       <c r="C88">
-        <v>0.0151381785926572</v>
+        <v>-0.009209197952254819</v>
       </c>
       <c r="D88">
-        <v>-0.01604708394756023</v>
+        <v>0.01867871058412639</v>
       </c>
       <c r="E88">
-        <v>-0.01671578507078858</v>
+        <v>0.0121830579865577</v>
       </c>
       <c r="F88">
-        <v>0.004574714859914332</v>
+        <v>0.01925755402881849</v>
       </c>
       <c r="G88">
-        <v>-0.05560215107959027</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>-0.001709880365037384</v>
+      </c>
+      <c r="H88">
+        <v>-0.0186017833487804</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.1082584166297808</v>
+        <v>0.2581515022191982</v>
       </c>
       <c r="C89">
-        <v>0.1219835093906215</v>
+        <v>-0.02653911798493826</v>
       </c>
       <c r="D89">
-        <v>-0.1722187513250028</v>
+        <v>-0.349762959812525</v>
       </c>
       <c r="E89">
-        <v>0.2562585808991422</v>
+        <v>-0.01916970064937167</v>
       </c>
       <c r="F89">
-        <v>0.09790251659677671</v>
+        <v>-0.02418832090442631</v>
       </c>
       <c r="G89">
-        <v>0.004081108629173369</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>-0.0008911294177445711</v>
+      </c>
+      <c r="H89">
+        <v>-0.01034465674759813</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.09302375665604568</v>
+        <v>0.2094197464232164</v>
       </c>
       <c r="C90">
-        <v>0.1735866133233291</v>
+        <v>-0.02501967935098574</v>
       </c>
       <c r="D90">
-        <v>-0.1903756586770377</v>
+        <v>-0.3159359235326129</v>
       </c>
       <c r="E90">
-        <v>0.2646294507460239</v>
+        <v>-0.01096444432615576</v>
       </c>
       <c r="F90">
-        <v>0.04479820323545573</v>
+        <v>-0.05115428756042634</v>
       </c>
       <c r="G90">
-        <v>-0.02973406626132157</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>-0.01118572536970127</v>
+      </c>
+      <c r="H90">
+        <v>0.05190482329518793</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.3034717273939541</v>
+        <v>0.2293140512378769</v>
       </c>
       <c r="C91">
-        <v>-0.1298896676963533</v>
+        <v>0.09900428602287929</v>
       </c>
       <c r="D91">
-        <v>-0.09192958167722776</v>
+        <v>0.1471372054525198</v>
       </c>
       <c r="E91">
-        <v>-0.1154274583536444</v>
+        <v>-0.009506237170258659</v>
       </c>
       <c r="F91">
-        <v>-0.2167545578327294</v>
+        <v>0.0824073609595181</v>
       </c>
       <c r="G91">
-        <v>0.02411730212102914</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>-0.1407441981140297</v>
+      </c>
+      <c r="H91">
+        <v>0.168934790661574</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.1784931516011642</v>
+        <v>0.2536061190989583</v>
       </c>
       <c r="C92">
-        <v>0.1280042744313347</v>
+        <v>0.04326111136756258</v>
       </c>
       <c r="D92">
-        <v>-0.343974185537649</v>
+        <v>-0.2442574154588698</v>
       </c>
       <c r="E92">
-        <v>0.2496928848263084</v>
+        <v>-8.011813540958165e-06</v>
       </c>
       <c r="F92">
-        <v>-0.1748959858804176</v>
+        <v>0.002569241565300496</v>
       </c>
       <c r="G92">
-        <v>-0.4910015376593926</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.01799772551769489</v>
+      </c>
+      <c r="H92">
+        <v>0.1256751722126831</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.09861738314316421</v>
+        <v>0.2344065923622972</v>
       </c>
       <c r="C93">
-        <v>0.1653732361717184</v>
+        <v>-0.01562074128187389</v>
       </c>
       <c r="D93">
-        <v>-0.2131979518175467</v>
+        <v>-0.3239875433473127</v>
       </c>
       <c r="E93">
-        <v>0.3674210182388704</v>
+        <v>-0.03239735265755236</v>
       </c>
       <c r="F93">
-        <v>-0.01068720215893778</v>
+        <v>-0.05365880823963898</v>
       </c>
       <c r="G93">
-        <v>0.05967307388903455</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>-0.007839905128949163</v>
+      </c>
+      <c r="H93">
+        <v>-0.01202765687316793</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.2982967785438724</v>
+        <v>0.2818147410162076</v>
       </c>
       <c r="C94">
-        <v>-0.1574090939472571</v>
+        <v>0.09466579881068418</v>
       </c>
       <c r="D94">
-        <v>-0.1851156765967207</v>
+        <v>0.1412535979921086</v>
       </c>
       <c r="E94">
-        <v>-0.1311767590311868</v>
+        <v>-0.02941823102080321</v>
       </c>
       <c r="F94">
-        <v>-0.1657922517508571</v>
+        <v>0.1772249565360423</v>
       </c>
       <c r="G94">
-        <v>0.04003663027559579</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>-0.241830229515387</v>
+      </c>
+      <c r="H94">
+        <v>0.2857301369729053</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.04725898666103114</v>
+        <v>0.05557910858424412</v>
       </c>
       <c r="C95">
-        <v>-0.05511827280439657</v>
+        <v>0.03612662640886156</v>
       </c>
       <c r="D95">
-        <v>0.04670399449295116</v>
+        <v>0.08341777837811958</v>
       </c>
       <c r="E95">
-        <v>-0.05575675582854905</v>
+        <v>-0.08318143137165283</v>
       </c>
       <c r="F95">
-        <v>0.07108704503556471</v>
+        <v>-0.004061927933810336</v>
       </c>
       <c r="G95">
-        <v>-0.1957721677676004</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>0.05162395252555872</v>
+      </c>
+      <c r="H95">
+        <v>-0.05233884370855279</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3196,13 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3222,39 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.166283548534381</v>
+        <v>0.1836542055507576</v>
       </c>
       <c r="C98">
-        <v>-0.05613262690037721</v>
+        <v>0.05718306196871432</v>
       </c>
       <c r="D98">
-        <v>0.04047282123595652</v>
+        <v>0.03507352802867381</v>
       </c>
       <c r="E98">
-        <v>0.1409946946455766</v>
+        <v>-0.05593256737711549</v>
       </c>
       <c r="F98">
-        <v>0.0977735322165898</v>
+        <v>0.009896268216918906</v>
       </c>
       <c r="G98">
-        <v>0.3586299969187302</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>0.07635260741267327</v>
+      </c>
+      <c r="H98">
+        <v>-0.3442636643302344</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3274,13 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,97 +3300,112 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.004607737002694133</v>
+        <v>0.01769732890183741</v>
       </c>
       <c r="C101">
-        <v>-0.01994811265059213</v>
+        <v>0.000561385319463348</v>
       </c>
       <c r="D101">
-        <v>0.01249028583966277</v>
+        <v>0.01252654600524469</v>
       </c>
       <c r="E101">
-        <v>-0.06172968995839839</v>
+        <v>0.002138198738941255</v>
       </c>
       <c r="F101">
-        <v>0.1784596798772618</v>
+        <v>0.01998202603873672</v>
       </c>
       <c r="G101">
-        <v>-0.09831542458974699</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>0.1021755180588417</v>
+      </c>
+      <c r="H101">
+        <v>0.0219828851915747</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.1151796539634569</v>
+        <v>0.1026399207278805</v>
       </c>
       <c r="C102">
-        <v>-0.05126255821270525</v>
+        <v>0.03492501946151314</v>
       </c>
       <c r="D102">
-        <v>-0.03677811289206098</v>
+        <v>0.08255851161112883</v>
       </c>
       <c r="E102">
-        <v>-0.07293689535276551</v>
+        <v>0.003515797551089436</v>
       </c>
       <c r="F102">
-        <v>-0.07764402515008723</v>
+        <v>0.04683493811675101</v>
       </c>
       <c r="G102">
-        <v>0.007617523637121394</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>-0.07107273746769263</v>
+      </c>
+      <c r="H102">
+        <v>0.06523403810374293</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>-0.04405790494368046</v>
+        <v>0.01549007471882662</v>
       </c>
       <c r="C103">
-        <v>-0.01254218994369968</v>
+        <v>0.00640163390839225</v>
       </c>
       <c r="D103">
-        <v>-0.01305657150100026</v>
+        <v>0.01527108281138403</v>
       </c>
       <c r="E103">
-        <v>-0.05116351957066412</v>
+        <v>0.008329416373764593</v>
       </c>
       <c r="F103">
-        <v>0.01240890273275687</v>
+        <v>0.006715968774023035</v>
       </c>
       <c r="G103">
-        <v>-0.03897991886953044</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>0.002048155354595912</v>
+      </c>
+      <c r="H103">
+        <v>0.01283957779762112</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>0.1870038391248434</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>-0.9544507978471048</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>0.1559960179379412</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>0.0279959244001303</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>0.131901108092854</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>-0.01498853032799187</v>
+      </c>
+      <c r="H104">
+        <v>0.0491397625361548</v>
       </c>
     </row>
   </sheetData>
